--- a/resultados/resultados_RS_cv_vs_test-us_crime.xlsx
+++ b/resultados/resultados_RS_cv_vs_test-us_crime.xlsx
@@ -1355,10 +1355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2071,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -3773,7 +3774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -3832,7 +3833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -4835,7 +4836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -5180,7 +5181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -5416,7 +5417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -6124,7 +6125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -7127,7 +7128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -7363,7 +7364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -7717,7 +7718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>22</v>
       </c>
@@ -7888,7 +7889,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -8006,7 +8007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -8714,7 +8715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -8891,7 +8892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -9068,7 +9069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -9127,7 +9128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -9245,7 +9246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -9475,7 +9476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -9770,7 +9771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -9947,7 +9948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>23</v>
       </c>
@@ -10183,7 +10184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -10537,7 +10538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>23</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>23</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -11422,7 +11423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -11599,7 +11600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -11717,7 +11718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -11894,7 +11895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -11953,7 +11954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -12071,7 +12072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -12307,7 +12308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -12425,7 +12426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>23</v>
       </c>
@@ -12484,7 +12485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -12602,7 +12603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -12661,7 +12662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -12779,7 +12780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -12956,7 +12957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -13015,7 +13016,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>23</v>
       </c>
@@ -13192,7 +13193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -13310,7 +13311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -13369,7 +13370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -13546,7 +13547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -13723,7 +13724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -13841,7 +13842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -14077,7 +14078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -14195,7 +14196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>23</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -14372,7 +14373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -14431,7 +14432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -14950,7 +14951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -15068,7 +15069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -15245,7 +15246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -15422,7 +15423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -15481,7 +15482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -15599,7 +15600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -15770,7 +15771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -15829,7 +15830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -15947,7 +15948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>23</v>
       </c>
@@ -16006,7 +16007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>23</v>
       </c>
@@ -16124,7 +16125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -16183,7 +16184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -16360,7 +16361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>23</v>
       </c>
@@ -16478,7 +16479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>23</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -16655,7 +16656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -16832,7 +16833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -16891,7 +16892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -17009,7 +17010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -17068,7 +17069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -17186,7 +17187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -17236,7 +17237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>20</v>
       </c>
@@ -17348,7 +17349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>23</v>
       </c>
@@ -17407,7 +17408,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>22</v>
       </c>
@@ -17519,7 +17520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>20</v>
       </c>
@@ -17572,7 +17573,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>21</v>
       </c>
@@ -17627,6 +17628,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S277">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:S275">
       <sortCondition descending="1" ref="N1:N277"/>
     </sortState>
